--- a/clases/datos/Tema3_Tarea3.xlsx
+++ b/clases/datos/Tema3_Tarea3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81458934-2155-4ABA-987A-4AE7F0776E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{81458934-2155-4ABA-987A-4AE7F0776E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0193F8B7-945E-43AE-AB99-784D6BF75502}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pib" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>pibv</t>
   </si>
@@ -74,301 +74,298 @@
     <t>Producto interior bruto a precios de mercado. Indices de volumen encadenado. Datos no ajustados de estacionalidad y calendario</t>
   </si>
   <si>
-    <t>1995Q1</t>
-  </si>
-  <si>
-    <t>1995Q2</t>
-  </si>
-  <si>
-    <t>1995Q3</t>
-  </si>
-  <si>
-    <t>1995Q4</t>
-  </si>
-  <si>
-    <t>1996Q1</t>
-  </si>
-  <si>
-    <t>1996Q2</t>
-  </si>
-  <si>
-    <t>1996Q3</t>
-  </si>
-  <si>
-    <t>1996Q4</t>
-  </si>
-  <si>
-    <t>1997Q1</t>
-  </si>
-  <si>
-    <t>1997Q2</t>
-  </si>
-  <si>
-    <t>1997Q3</t>
-  </si>
-  <si>
-    <t>1997Q4</t>
-  </si>
-  <si>
-    <t>1998Q1</t>
-  </si>
-  <si>
-    <t>1998Q2</t>
-  </si>
-  <si>
-    <t>1998Q3</t>
-  </si>
-  <si>
-    <t>1998Q4</t>
-  </si>
-  <si>
-    <t>1999Q1</t>
-  </si>
-  <si>
-    <t>1999Q2</t>
-  </si>
-  <si>
-    <t>1999Q3</t>
-  </si>
-  <si>
-    <t>1999Q4</t>
-  </si>
-  <si>
-    <t>2000Q1</t>
-  </si>
-  <si>
-    <t>2000Q2</t>
-  </si>
-  <si>
-    <t>2000Q3</t>
-  </si>
-  <si>
-    <t>2000Q4</t>
-  </si>
-  <si>
-    <t>2001Q1</t>
-  </si>
-  <si>
-    <t>2001Q2</t>
-  </si>
-  <si>
-    <t>2001Q3</t>
-  </si>
-  <si>
-    <t>2001Q4</t>
-  </si>
-  <si>
-    <t>2002Q1</t>
-  </si>
-  <si>
-    <t>2002Q2</t>
-  </si>
-  <si>
-    <t>2002Q3</t>
-  </si>
-  <si>
-    <t>2002Q4</t>
-  </si>
-  <si>
-    <t>2003Q1</t>
-  </si>
-  <si>
-    <t>2003Q2</t>
-  </si>
-  <si>
-    <t>2003Q3</t>
-  </si>
-  <si>
-    <t>2003Q4</t>
-  </si>
-  <si>
-    <t>2004Q1</t>
-  </si>
-  <si>
-    <t>2004Q2</t>
-  </si>
-  <si>
-    <t>2004Q3</t>
-  </si>
-  <si>
-    <t>2004Q4</t>
-  </si>
-  <si>
-    <t>2005Q1</t>
-  </si>
-  <si>
-    <t>2005Q2</t>
-  </si>
-  <si>
-    <t>2005Q3</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q1</t>
-  </si>
-  <si>
-    <t>2006Q2</t>
-  </si>
-  <si>
-    <t>2006Q3</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q1</t>
-  </si>
-  <si>
-    <t>2007Q2</t>
-  </si>
-  <si>
-    <t>2007Q3</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q1</t>
-  </si>
-  <si>
-    <t>2008Q2</t>
-  </si>
-  <si>
-    <t>2008Q3</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q1</t>
-  </si>
-  <si>
-    <t>2009Q2</t>
-  </si>
-  <si>
-    <t>2009Q3</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q1</t>
-  </si>
-  <si>
-    <t>2010Q2</t>
-  </si>
-  <si>
-    <t>2010Q3</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q2</t>
-  </si>
-  <si>
-    <t>2011Q3</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q1</t>
-  </si>
-  <si>
-    <t>2012Q2</t>
-  </si>
-  <si>
-    <t>2012Q3</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q1</t>
-  </si>
-  <si>
-    <t>2013Q2</t>
-  </si>
-  <si>
-    <t>2013Q3</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q1</t>
-  </si>
-  <si>
-    <t>2014Q2</t>
-  </si>
-  <si>
-    <t>2014Q3</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q1</t>
-  </si>
-  <si>
-    <t>2015Q2</t>
-  </si>
-  <si>
-    <t>2015Q3</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q1</t>
-  </si>
-  <si>
-    <t>2016Q2</t>
-  </si>
-  <si>
-    <t>2016Q3</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q1</t>
-  </si>
-  <si>
-    <t>2017Q2</t>
-  </si>
-  <si>
-    <t>2017Q3</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q1</t>
-  </si>
-  <si>
-    <t>2018Q2</t>
-  </si>
-  <si>
-    <t>2018Q3</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q1</t>
-  </si>
-  <si>
-    <t>2019Q2</t>
-  </si>
-  <si>
-    <t>periodo2</t>
+    <t>1995T1</t>
+  </si>
+  <si>
+    <t>1995T2</t>
+  </si>
+  <si>
+    <t>1995T3</t>
+  </si>
+  <si>
+    <t>1995T4</t>
+  </si>
+  <si>
+    <t>1996T1</t>
+  </si>
+  <si>
+    <t>1996T2</t>
+  </si>
+  <si>
+    <t>1996T3</t>
+  </si>
+  <si>
+    <t>1996T4</t>
+  </si>
+  <si>
+    <t>1997T1</t>
+  </si>
+  <si>
+    <t>1997T2</t>
+  </si>
+  <si>
+    <t>1997T3</t>
+  </si>
+  <si>
+    <t>1997T4</t>
+  </si>
+  <si>
+    <t>1998T1</t>
+  </si>
+  <si>
+    <t>1998T2</t>
+  </si>
+  <si>
+    <t>1998T3</t>
+  </si>
+  <si>
+    <t>1998T4</t>
+  </si>
+  <si>
+    <t>1999T1</t>
+  </si>
+  <si>
+    <t>1999T2</t>
+  </si>
+  <si>
+    <t>1999T3</t>
+  </si>
+  <si>
+    <t>1999T4</t>
+  </si>
+  <si>
+    <t>2000T1</t>
+  </si>
+  <si>
+    <t>2000T2</t>
+  </si>
+  <si>
+    <t>2000T3</t>
+  </si>
+  <si>
+    <t>2000T4</t>
+  </si>
+  <si>
+    <t>2001T1</t>
+  </si>
+  <si>
+    <t>2001T2</t>
+  </si>
+  <si>
+    <t>2001T3</t>
+  </si>
+  <si>
+    <t>2001T4</t>
+  </si>
+  <si>
+    <t>2002T1</t>
+  </si>
+  <si>
+    <t>2002T2</t>
+  </si>
+  <si>
+    <t>2002T3</t>
+  </si>
+  <si>
+    <t>2002T4</t>
+  </si>
+  <si>
+    <t>2003T1</t>
+  </si>
+  <si>
+    <t>2003T2</t>
+  </si>
+  <si>
+    <t>2003T3</t>
+  </si>
+  <si>
+    <t>2003T4</t>
+  </si>
+  <si>
+    <t>2004T1</t>
+  </si>
+  <si>
+    <t>2004T2</t>
+  </si>
+  <si>
+    <t>2004T3</t>
+  </si>
+  <si>
+    <t>2004T4</t>
+  </si>
+  <si>
+    <t>2005T1</t>
+  </si>
+  <si>
+    <t>2005T2</t>
+  </si>
+  <si>
+    <t>2005T3</t>
+  </si>
+  <si>
+    <t>2005T4</t>
+  </si>
+  <si>
+    <t>2006T1</t>
+  </si>
+  <si>
+    <t>2006T2</t>
+  </si>
+  <si>
+    <t>2006T3</t>
+  </si>
+  <si>
+    <t>2006T4</t>
+  </si>
+  <si>
+    <t>2007T1</t>
+  </si>
+  <si>
+    <t>2007T2</t>
+  </si>
+  <si>
+    <t>2007T3</t>
+  </si>
+  <si>
+    <t>2007T4</t>
+  </si>
+  <si>
+    <t>2008T1</t>
+  </si>
+  <si>
+    <t>2008T2</t>
+  </si>
+  <si>
+    <t>2008T3</t>
+  </si>
+  <si>
+    <t>2008T4</t>
+  </si>
+  <si>
+    <t>2009T1</t>
+  </si>
+  <si>
+    <t>2009T2</t>
+  </si>
+  <si>
+    <t>2009T3</t>
+  </si>
+  <si>
+    <t>2009T4</t>
+  </si>
+  <si>
+    <t>2010T1</t>
+  </si>
+  <si>
+    <t>2010T2</t>
+  </si>
+  <si>
+    <t>2010T3</t>
+  </si>
+  <si>
+    <t>2010T4</t>
+  </si>
+  <si>
+    <t>2011T1</t>
+  </si>
+  <si>
+    <t>2011T2</t>
+  </si>
+  <si>
+    <t>2011T3</t>
+  </si>
+  <si>
+    <t>2011T4</t>
+  </si>
+  <si>
+    <t>2012T1</t>
+  </si>
+  <si>
+    <t>2012T2</t>
+  </si>
+  <si>
+    <t>2012T3</t>
+  </si>
+  <si>
+    <t>2012T4</t>
+  </si>
+  <si>
+    <t>2013T1</t>
+  </si>
+  <si>
+    <t>2013T2</t>
+  </si>
+  <si>
+    <t>2013T3</t>
+  </si>
+  <si>
+    <t>2013T4</t>
+  </si>
+  <si>
+    <t>2014T1</t>
+  </si>
+  <si>
+    <t>2014T2</t>
+  </si>
+  <si>
+    <t>2014T3</t>
+  </si>
+  <si>
+    <t>2014T4</t>
+  </si>
+  <si>
+    <t>2015T1</t>
+  </si>
+  <si>
+    <t>2015T2</t>
+  </si>
+  <si>
+    <t>2015T3</t>
+  </si>
+  <si>
+    <t>2015T4</t>
+  </si>
+  <si>
+    <t>2016T1</t>
+  </si>
+  <si>
+    <t>2016T2</t>
+  </si>
+  <si>
+    <t>2016T3</t>
+  </si>
+  <si>
+    <t>2016T4</t>
+  </si>
+  <si>
+    <t>2017T1</t>
+  </si>
+  <si>
+    <t>2017T2</t>
+  </si>
+  <si>
+    <t>2017T3</t>
+  </si>
+  <si>
+    <t>2017T4</t>
+  </si>
+  <si>
+    <t>2018T1</t>
+  </si>
+  <si>
+    <t>2018T2</t>
+  </si>
+  <si>
+    <t>2018T3</t>
+  </si>
+  <si>
+    <t>2018T4</t>
+  </si>
+  <si>
+    <t>2019T1</t>
+  </si>
+  <si>
+    <t>2019T2</t>
   </si>
 </sst>
 </file>
@@ -437,6 +434,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,15 +705,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -720,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -728,7 +729,7 @@
         <v>63.450899999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -736,7 +737,7 @@
         <v>67.267499999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -744,7 +745,7 @@
         <v>65.228499999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -752,7 +753,7 @@
         <v>69.882199999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -760,7 +761,7 @@
         <v>64.929900000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -768,7 +769,7 @@
         <v>68.697000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -776,7 +777,7 @@
         <v>67.345600000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -784,7 +785,7 @@
         <v>71.929100000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -792,7 +793,7 @@
         <v>66.669399999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -800,7 +801,7 @@
         <v>71.024299999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -808,7 +809,7 @@
         <v>69.918599999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -816,7 +817,7 @@
         <v>75.393500000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -824,7 +825,7 @@
         <v>70.066199999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -832,7 +833,7 @@
         <v>74.210400000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -840,7 +841,7 @@
         <v>72.959500000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -848,7 +849,7 @@
         <v>78.202399999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -856,7 +857,7 @@
         <v>73.202500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -864,7 +865,7 @@
         <v>77.605599999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -872,7 +873,7 @@
         <v>76.399299999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -880,7 +881,7 @@
         <v>81.497900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -888,7 +889,7 @@
         <v>77.631399999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -896,7 +897,7 @@
         <v>81.7727</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -904,7 +905,7 @@
         <v>80.1905</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -912,7 +913,7 @@
         <v>85.305099999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -920,7 +921,7 @@
         <v>80.989999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -928,7 +929,7 @@
         <v>84.867699999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -936,7 +937,7 @@
         <v>83.240899999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -944,7 +945,7 @@
         <v>88.579300000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -952,7 +953,7 @@
         <v>83.022000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -960,7 +961,7 @@
         <v>87.530299999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -968,7 +969,7 @@
         <v>85.399000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -976,7 +977,7 @@
         <v>90.948499999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -984,7 +985,7 @@
         <v>86.046400000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -992,7 +993,7 @@
         <v>89.933999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>87.825299999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>93.438500000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>88.434700000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>92.708600000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>90.882400000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>96.374499999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>91.285799999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>96.385499999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>94.149299999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>57</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>100.03360000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>58</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>95.507999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>59</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>100.1344</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>97.726799999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>104.1515</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>62</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>98.936700000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>103.7272</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>101.23090000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>107.95529999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>101.2835</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>67</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>105.7376</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>102.2764</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>69</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>106.2062</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>70</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>96.709199999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>71</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>100.879</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>72</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>98.633700000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>73</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>103.64570000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>74</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>96.677300000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>75</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>101.23350000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>76</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>98.929199999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>77</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>103.6794</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>78</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>96.825000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>79</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>100.71429999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>80</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>98.273899999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>81</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>101.4444</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>82</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>94.632400000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>83</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>97.435900000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>84</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>95.3964</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>85</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>98.0364</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>86</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>91.787400000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>87</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>96.169399999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>88</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>94.532300000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>89</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>97.478300000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>90</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>92.520300000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>91</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>96.934799999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>92</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>96.132000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>93</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>99.638900000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>94</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>95.451999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>95</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>100.72280000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>96</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>100.10939999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>97</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>103.7158</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>98</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>98.9405</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>99</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>104.098</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>100</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>103.1545</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>101</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>105.9323</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>102</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>101.4222</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>103</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>107.4537</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>104</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>105.89660000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>105</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>109.2705</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>106</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>104.08629999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>107</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>110.0672</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>108</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>107.9902</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>109</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>111.8682</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>110</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>106.6118</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>111</v>
       </c>
@@ -1515,12 +1516,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1536,11 +1537,9 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>199501</v>
       </c>
@@ -1556,12 +1555,8 @@
       <c r="E2">
         <v>663.00154399999997</v>
       </c>
-      <c r="F2" t="str">
-        <f>LEFT(A2,4)&amp;"-"&amp;RIGHT(A2,2)</f>
-        <v>1995-01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>199502</v>
       </c>
@@ -1577,12 +1572,8 @@
       <c r="E3">
         <v>640.36651700000004</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">LEFT(A3,4)&amp;"-"&amp;RIGHT(A3,2)</f>
-        <v>1995-02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>199503</v>
       </c>
@@ -1598,12 +1589,8 @@
       <c r="E4">
         <v>721.61457700000005</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>199504</v>
       </c>
@@ -1619,12 +1606,8 @@
       <c r="E5">
         <v>755.75716299999999</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>199505</v>
       </c>
@@ -1640,12 +1623,8 @@
       <c r="E6">
         <v>711.43940299999997</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>199506</v>
       </c>
@@ -1661,12 +1640,8 @@
       <c r="E7">
         <v>747.332357</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>199507</v>
       </c>
@@ -1682,12 +1657,8 @@
       <c r="E8">
         <v>856.31488100000001</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-07</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>199508</v>
       </c>
@@ -1703,12 +1674,8 @@
       <c r="E9">
         <v>855.708887</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>199509</v>
       </c>
@@ -1724,12 +1691,8 @@
       <c r="E10">
         <v>739.66671699999995</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>199510</v>
       </c>
@@ -1745,12 +1708,8 @@
       <c r="E11">
         <v>769.42545299999995</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>199511</v>
       </c>
@@ -1766,12 +1725,8 @@
       <c r="E12">
         <v>684.81013199999995</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>199512</v>
       </c>
@@ -1787,12 +1742,8 @@
       <c r="E13">
         <v>782.34971099999996</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>199601</v>
       </c>
@@ -1808,12 +1759,8 @@
       <c r="E14">
         <v>653.55999999999995</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>199602</v>
       </c>
@@ -1829,12 +1776,8 @@
       <c r="E15">
         <v>676.93</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>199603</v>
       </c>
@@ -1850,12 +1793,8 @@
       <c r="E16">
         <v>740.74</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>199604</v>
       </c>
@@ -1871,12 +1810,8 @@
       <c r="E17">
         <v>766.65</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>199605</v>
       </c>
@@ -1892,12 +1827,8 @@
       <c r="E18">
         <v>744.56</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>199606</v>
       </c>
@@ -1913,12 +1844,8 @@
       <c r="E19">
         <v>736.01</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>199607</v>
       </c>
@@ -1934,12 +1861,8 @@
       <c r="E20">
         <v>857.7</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>199608</v>
       </c>
@@ -1955,12 +1878,8 @@
       <c r="E21">
         <v>878.49</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>199609</v>
       </c>
@@ -1976,12 +1895,8 @@
       <c r="E22">
         <v>731.86</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>199610</v>
       </c>
@@ -1997,12 +1912,8 @@
       <c r="E23">
         <v>770.31</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>199611</v>
       </c>
@@ -2018,12 +1929,8 @@
       <c r="E24">
         <v>695.74</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>199612</v>
       </c>
@@ -2039,12 +1946,8 @@
       <c r="E25">
         <v>758.62</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>1996-12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>199701</v>
       </c>
@@ -2060,12 +1963,8 @@
       <c r="E26">
         <v>655.46</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>199702</v>
       </c>
@@ -2081,12 +1980,8 @@
       <c r="E27">
         <v>648.89</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>199703</v>
       </c>
@@ -2102,12 +1997,8 @@
       <c r="E28">
         <v>756.54</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>199704</v>
       </c>
@@ -2123,12 +2014,8 @@
       <c r="E29">
         <v>717.98</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>199705</v>
       </c>
@@ -2144,12 +2031,8 @@
       <c r="E30">
         <v>746.41</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>199706</v>
       </c>
@@ -2165,12 +2048,8 @@
       <c r="E31">
         <v>721.97</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>199707</v>
       </c>
@@ -2186,12 +2065,8 @@
       <c r="E32">
         <v>845.91</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-07</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>199708</v>
       </c>
@@ -2207,12 +2082,8 @@
       <c r="E33">
         <v>854.63</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-08</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>199709</v>
       </c>
@@ -2228,12 +2099,8 @@
       <c r="E34">
         <v>743.41</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-09</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>199710</v>
       </c>
@@ -2249,12 +2116,8 @@
       <c r="E35">
         <v>756.75</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>199711</v>
       </c>
@@ -2270,12 +2133,8 @@
       <c r="E36">
         <v>665.81</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>199712</v>
       </c>
@@ -2291,12 +2150,8 @@
       <c r="E37">
         <v>781.35</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>1997-12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>199801</v>
       </c>
@@ -2312,12 +2167,8 @@
       <c r="E38">
         <v>663</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>199802</v>
       </c>
@@ -2333,12 +2184,8 @@
       <c r="E39">
         <v>640.37</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-02</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>199803</v>
       </c>
@@ -2354,12 +2201,8 @@
       <c r="E40">
         <v>721.61</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-03</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>199804</v>
       </c>
@@ -2375,12 +2218,8 @@
       <c r="E41">
         <v>755.76</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-04</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>199805</v>
       </c>
@@ -2396,12 +2235,8 @@
       <c r="E42">
         <v>711.44</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>199806</v>
       </c>
@@ -2417,12 +2252,8 @@
       <c r="E43">
         <v>747.33</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>199807</v>
       </c>
@@ -2438,12 +2269,8 @@
       <c r="E44">
         <v>856.31</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-07</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>199808</v>
       </c>
@@ -2459,12 +2286,8 @@
       <c r="E45">
         <v>855.71</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-08</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>199809</v>
       </c>
@@ -2480,12 +2303,8 @@
       <c r="E46">
         <v>739.67</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-09</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>199810</v>
       </c>
@@ -2501,12 +2320,8 @@
       <c r="E47">
         <v>769.43</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>199811</v>
       </c>
@@ -2522,12 +2337,8 @@
       <c r="E48">
         <v>635.96</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>199812</v>
       </c>
@@ -2543,12 +2354,8 @@
       <c r="E49">
         <v>782.35</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>1998-12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>199901</v>
       </c>
@@ -2564,12 +2371,8 @@
       <c r="E50">
         <v>635.96</v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-01</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>199902</v>
       </c>
@@ -2585,12 +2388,8 @@
       <c r="E51">
         <v>645.45000000000005</v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-02</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>199903</v>
       </c>
@@ -2606,12 +2405,8 @@
       <c r="E52">
         <v>774.39</v>
       </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-03</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>199904</v>
       </c>
@@ -2627,12 +2422,8 @@
       <c r="E53">
         <v>722.83</v>
       </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-04</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>199905</v>
       </c>
@@ -2648,12 +2439,8 @@
       <c r="E54">
         <v>726.15</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>199906</v>
       </c>
@@ -2669,12 +2456,8 @@
       <c r="E55">
         <v>748.21</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>199907</v>
       </c>
@@ -2690,12 +2473,8 @@
       <c r="E56">
         <v>858.65</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-07</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>199908</v>
       </c>
@@ -2711,12 +2490,8 @@
       <c r="E57">
         <v>824.95</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-08</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>199909</v>
       </c>
@@ -2732,12 +2507,8 @@
       <c r="E58">
         <v>734.15</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-09</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>199910</v>
       </c>
@@ -2753,12 +2524,8 @@
       <c r="E59">
         <v>729.22</v>
       </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>199911</v>
       </c>
@@ -2774,12 +2541,8 @@
       <c r="E60">
         <v>683.95</v>
       </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>199912</v>
       </c>
@@ -2795,12 +2558,8 @@
       <c r="E61">
         <v>761.68</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>1999-12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>200001</v>
       </c>
@@ -2816,12 +2575,8 @@
       <c r="E62">
         <v>624.77</v>
       </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>2000-01</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>200002</v>
       </c>
@@ -2837,12 +2592,8 @@
       <c r="E63">
         <v>654.37</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>2000-02</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>200003</v>
       </c>
@@ -2858,12 +2609,8 @@
       <c r="E64">
         <v>707.03</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>2000-03</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>200004</v>
       </c>
@@ -2879,12 +2626,8 @@
       <c r="E65">
         <v>712.03</v>
       </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>2000-04</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>200005</v>
       </c>
@@ -2900,12 +2643,8 @@
       <c r="E66">
         <v>709.73</v>
       </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>2000-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>200006</v>
       </c>
@@ -2921,12 +2660,8 @@
       <c r="E67">
         <v>717.97</v>
       </c>
-      <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="1">LEFT(A67,4)&amp;"-"&amp;RIGHT(A67,2)</f>
-        <v>2000-06</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>200007</v>
       </c>
@@ -2942,12 +2677,8 @@
       <c r="E68">
         <v>775.36</v>
       </c>
-      <c r="F68" t="str">
-        <f t="shared" si="1"/>
-        <v>2000-07</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>200008</v>
       </c>
@@ -2963,12 +2694,8 @@
       <c r="E69">
         <v>814.32</v>
       </c>
-      <c r="F69" t="str">
-        <f t="shared" si="1"/>
-        <v>2000-08</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>200009</v>
       </c>
@@ -2984,12 +2711,8 @@
       <c r="E70">
         <v>773.29</v>
       </c>
-      <c r="F70" t="str">
-        <f t="shared" si="1"/>
-        <v>2000-09</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>200010</v>
       </c>
@@ -3005,12 +2728,8 @@
       <c r="E71">
         <v>641.91999999999996</v>
       </c>
-      <c r="F71" t="str">
-        <f t="shared" si="1"/>
-        <v>2000-10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>200011</v>
       </c>
@@ -3026,12 +2745,8 @@
       <c r="E72">
         <v>621.80999999999995</v>
       </c>
-      <c r="F72" t="str">
-        <f t="shared" si="1"/>
-        <v>2000-11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>200012</v>
       </c>
@@ -3047,12 +2762,8 @@
       <c r="E73">
         <v>693.07</v>
       </c>
-      <c r="F73" t="str">
-        <f t="shared" si="1"/>
-        <v>2000-12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>200101</v>
       </c>
@@ -3068,12 +2779,8 @@
       <c r="E74">
         <v>632.1</v>
       </c>
-      <c r="F74" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-01</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>200102</v>
       </c>
@@ -3089,12 +2796,8 @@
       <c r="E75">
         <v>608.79999999999995</v>
       </c>
-      <c r="F75" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-02</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>200103</v>
       </c>
@@ -3110,12 +2813,8 @@
       <c r="E76">
         <v>689.8</v>
       </c>
-      <c r="F76" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-03</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>200104</v>
       </c>
@@ -3131,12 +2830,8 @@
       <c r="E77">
         <v>710.36</v>
       </c>
-      <c r="F77" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-04</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>200105</v>
       </c>
@@ -3152,12 +2847,8 @@
       <c r="E78">
         <v>681.55</v>
       </c>
-      <c r="F78" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>200106</v>
       </c>
@@ -3173,12 +2864,8 @@
       <c r="E79">
         <v>715.93</v>
       </c>
-      <c r="F79" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-06</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>200107</v>
       </c>
@@ -3194,12 +2881,8 @@
       <c r="E80">
         <v>768.7</v>
       </c>
-      <c r="F80" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-07</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>200108</v>
       </c>
@@ -3215,12 +2898,8 @@
       <c r="E81">
         <v>817.21</v>
       </c>
-      <c r="F81" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-08</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>200109</v>
       </c>
@@ -3236,12 +2915,8 @@
       <c r="E82">
         <v>671.64</v>
       </c>
-      <c r="F82" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-09</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>200110</v>
       </c>
@@ -3257,12 +2932,8 @@
       <c r="E83">
         <v>714.58</v>
       </c>
-      <c r="F83" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>200111</v>
       </c>
@@ -3278,12 +2949,8 @@
       <c r="E84">
         <v>655.32000000000005</v>
       </c>
-      <c r="F84" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>200112</v>
       </c>
@@ -3299,12 +2966,8 @@
       <c r="E85">
         <v>728.54</v>
       </c>
-      <c r="F85" t="str">
-        <f t="shared" si="1"/>
-        <v>2001-12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>200201</v>
       </c>
@@ -3320,12 +2983,8 @@
       <c r="E86">
         <v>600.20000000000005</v>
       </c>
-      <c r="F86" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-01</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>200202</v>
       </c>
@@ -3341,12 +3000,8 @@
       <c r="E87">
         <v>590.37</v>
       </c>
-      <c r="F87" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-02</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>200203</v>
       </c>
@@ -3362,12 +3017,8 @@
       <c r="E88">
         <v>688.71</v>
       </c>
-      <c r="F88" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-03</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>200204</v>
       </c>
@@ -3383,12 +3034,8 @@
       <c r="E89">
         <v>667.8</v>
       </c>
-      <c r="F89" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-04</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>200205</v>
       </c>
@@ -3404,12 +3051,8 @@
       <c r="E90">
         <v>686.15</v>
       </c>
-      <c r="F90" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>200206</v>
       </c>
@@ -3425,12 +3068,8 @@
       <c r="E91">
         <v>667.85</v>
       </c>
-      <c r="F91" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-06</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>200207</v>
       </c>
@@ -3446,12 +3085,8 @@
       <c r="E92">
         <v>778.83</v>
       </c>
-      <c r="F92" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-07</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>200208</v>
       </c>
@@ -3467,12 +3102,8 @@
       <c r="E93">
         <v>794.08</v>
       </c>
-      <c r="F93" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-08</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>200209</v>
       </c>
@@ -3488,12 +3119,8 @@
       <c r="E94">
         <v>661.91</v>
       </c>
-      <c r="F94" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-09</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>200210</v>
       </c>
@@ -3509,12 +3136,8 @@
       <c r="E95">
         <v>697.03</v>
       </c>
-      <c r="F95" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>200211</v>
       </c>
@@ -3530,12 +3153,8 @@
       <c r="E96">
         <v>635.15</v>
       </c>
-      <c r="F96" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>200212</v>
       </c>
@@ -3551,12 +3170,8 @@
       <c r="E97">
         <v>674.32</v>
       </c>
-      <c r="F97" t="str">
-        <f t="shared" si="1"/>
-        <v>2002-12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>200301</v>
       </c>
@@ -3572,12 +3187,8 @@
       <c r="E98">
         <v>611.97</v>
       </c>
-      <c r="F98" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-01</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>200302</v>
       </c>
@@ -3593,12 +3204,8 @@
       <c r="E99">
         <v>574.47</v>
       </c>
-      <c r="F99" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-02</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>200303</v>
       </c>
@@ -3614,12 +3221,8 @@
       <c r="E100">
         <v>645.22</v>
       </c>
-      <c r="F100" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-03</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>200304</v>
       </c>
@@ -3635,12 +3238,8 @@
       <c r="E101">
         <v>691.71</v>
       </c>
-      <c r="F101" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-04</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>200305</v>
       </c>
@@ -3656,12 +3255,8 @@
       <c r="E102">
         <v>687.81</v>
       </c>
-      <c r="F102" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-05</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>200306</v>
       </c>
@@ -3677,12 +3272,8 @@
       <c r="E103">
         <v>676.01</v>
       </c>
-      <c r="F103" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-06</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>200307</v>
       </c>
@@ -3698,12 +3289,8 @@
       <c r="E104">
         <v>765.6</v>
       </c>
-      <c r="F104" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-07</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>200308</v>
       </c>
@@ -3719,12 +3306,8 @@
       <c r="E105">
         <v>765.32</v>
       </c>
-      <c r="F105" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-08</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>200309</v>
       </c>
@@ -3740,12 +3323,8 @@
       <c r="E106">
         <v>669.17</v>
       </c>
-      <c r="F106" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-09</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>200310</v>
       </c>
@@ -3761,12 +3340,8 @@
       <c r="E107">
         <v>673.77</v>
       </c>
-      <c r="F107" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>200311</v>
       </c>
@@ -3782,12 +3357,8 @@
       <c r="E108">
         <v>593.72</v>
       </c>
-      <c r="F108" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>200312</v>
       </c>
@@ -3803,12 +3374,8 @@
       <c r="E109">
         <v>682.87</v>
       </c>
-      <c r="F109" t="str">
-        <f t="shared" si="1"/>
-        <v>2003-12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>200401</v>
       </c>
@@ -3824,12 +3391,8 @@
       <c r="E110">
         <v>602.91</v>
       </c>
-      <c r="F110" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-01</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>200402</v>
       </c>
@@ -3845,12 +3408,8 @@
       <c r="E111">
         <v>568.84</v>
       </c>
-      <c r="F111" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-02</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>200403</v>
       </c>
@@ -3866,12 +3425,8 @@
       <c r="E112">
         <v>640.73</v>
       </c>
-      <c r="F112" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-03</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>200404</v>
       </c>
@@ -3887,12 +3442,8 @@
       <c r="E113">
         <v>661.43</v>
       </c>
-      <c r="F113" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-04</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>200405</v>
       </c>
@@ -3908,12 +3459,8 @@
       <c r="E114">
         <v>626.64</v>
       </c>
-      <c r="F114" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-05</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>200406</v>
       </c>
@@ -3929,12 +3476,8 @@
       <c r="E115">
         <v>665.9</v>
       </c>
-      <c r="F115" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-06</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>200407</v>
       </c>
@@ -3950,12 +3493,8 @@
       <c r="E116">
         <v>737.66</v>
       </c>
-      <c r="F116" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-07</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>200408</v>
       </c>
@@ -3971,12 +3510,8 @@
       <c r="E117">
         <v>709.6</v>
       </c>
-      <c r="F117" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-08</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>200409</v>
       </c>
@@ -3992,12 +3527,8 @@
       <c r="E118">
         <v>637.41</v>
       </c>
-      <c r="F118" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-09</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>200410</v>
       </c>
@@ -4013,12 +3544,8 @@
       <c r="E119">
         <v>626.34</v>
       </c>
-      <c r="F119" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>200411</v>
       </c>
@@ -4034,12 +3561,8 @@
       <c r="E120">
         <v>592.15</v>
       </c>
-      <c r="F120" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>200412</v>
       </c>
@@ -4055,12 +3578,8 @@
       <c r="E121">
         <v>641.38</v>
       </c>
-      <c r="F121" t="str">
-        <f t="shared" si="1"/>
-        <v>2004-12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>200501</v>
       </c>
@@ -4076,12 +3595,8 @@
       <c r="E122">
         <v>550.30999999999995</v>
       </c>
-      <c r="F122" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-01</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>200502</v>
       </c>
@@ -4097,12 +3612,8 @@
       <c r="E123">
         <v>528.14</v>
       </c>
-      <c r="F123" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-02</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>200503</v>
       </c>
@@ -4118,12 +3629,8 @@
       <c r="E124">
         <v>627.86</v>
       </c>
-      <c r="F124" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-03</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>200504</v>
       </c>
@@ -4139,12 +3646,8 @@
       <c r="E125">
         <v>600.25</v>
       </c>
-      <c r="F125" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-04</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>200505</v>
       </c>
@@ -4160,12 +3663,8 @@
       <c r="E126">
         <v>618.27</v>
       </c>
-      <c r="F126" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-05</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>200506</v>
       </c>
@@ -4181,12 +3680,8 @@
       <c r="E127">
         <v>630.66</v>
       </c>
-      <c r="F127" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-06</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>200507</v>
       </c>
@@ -4202,12 +3697,8 @@
       <c r="E128">
         <v>682.62</v>
       </c>
-      <c r="F128" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-07</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>200508</v>
       </c>
@@ -4223,12 +3714,8 @@
       <c r="E129">
         <v>688.32</v>
       </c>
-      <c r="F129" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-08</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>200509</v>
       </c>
@@ -4244,12 +3731,8 @@
       <c r="E130">
         <v>599.75</v>
       </c>
-      <c r="F130" t="str">
-        <f t="shared" si="1"/>
-        <v>2005-09</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>200510</v>
       </c>
@@ -4265,12 +3748,8 @@
       <c r="E131">
         <v>589.88</v>
       </c>
-      <c r="F131" t="str">
-        <f t="shared" ref="F131:F194" si="2">LEFT(A131,4)&amp;"-"&amp;RIGHT(A131,2)</f>
-        <v>2005-10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>200511</v>
       </c>
@@ -4286,12 +3765,8 @@
       <c r="E132">
         <v>549.11</v>
       </c>
-      <c r="F132" t="str">
-        <f t="shared" si="2"/>
-        <v>2005-11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>200512</v>
       </c>
@@ -4307,12 +3782,8 @@
       <c r="E133">
         <v>595.14</v>
       </c>
-      <c r="F133" t="str">
-        <f t="shared" si="2"/>
-        <v>2005-12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>200601</v>
       </c>
@@ -4328,12 +3799,8 @@
       <c r="E134">
         <v>532.25</v>
       </c>
-      <c r="F134" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-01</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>200602</v>
       </c>
@@ -4349,12 +3816,8 @@
       <c r="E135">
         <v>506.77</v>
       </c>
-      <c r="F135" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-02</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>200603</v>
       </c>
@@ -4370,12 +3833,8 @@
       <c r="E136">
         <v>583.89</v>
       </c>
-      <c r="F136" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-03</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>200604</v>
       </c>
@@ -4391,12 +3850,8 @@
       <c r="E137">
         <v>582.05999999999995</v>
       </c>
-      <c r="F137" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-04</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>200605</v>
       </c>
@@ -4412,12 +3867,8 @@
       <c r="E138">
         <v>597.09</v>
       </c>
-      <c r="F138" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-05</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>200606</v>
       </c>
@@ -4433,12 +3884,8 @@
       <c r="E139">
         <v>595.39</v>
       </c>
-      <c r="F139" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-06</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>200607</v>
       </c>
@@ -4454,12 +3901,8 @@
       <c r="E140">
         <v>631.33000000000004</v>
       </c>
-      <c r="F140" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-07</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>200608</v>
       </c>
@@ -4475,12 +3918,8 @@
       <c r="E141">
         <v>642.14</v>
       </c>
-      <c r="F141" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-08</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>200609</v>
       </c>
@@ -4496,12 +3935,8 @@
       <c r="E142">
         <v>582.47</v>
       </c>
-      <c r="F142" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-09</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>200610</v>
       </c>
@@ -4517,12 +3952,8 @@
       <c r="E143">
         <v>573.82000000000005</v>
       </c>
-      <c r="F143" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>200611</v>
       </c>
@@ -4538,12 +3969,8 @@
       <c r="E144">
         <v>532.48</v>
       </c>
-      <c r="F144" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>200612</v>
       </c>
@@ -4559,12 +3986,8 @@
       <c r="E145">
         <v>571.07000000000005</v>
       </c>
-      <c r="F145" t="str">
-        <f t="shared" si="2"/>
-        <v>2006-12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>200701</v>
       </c>
@@ -4580,12 +4003,8 @@
       <c r="E146">
         <v>521.57000000000005</v>
       </c>
-      <c r="F146" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-01</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>200702</v>
       </c>
@@ -4601,12 +4020,8 @@
       <c r="E147">
         <v>485.15</v>
       </c>
-      <c r="F147" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-02</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>200703</v>
       </c>
@@ -4622,12 +4037,8 @@
       <c r="E148">
         <v>576.83000000000004</v>
       </c>
-      <c r="F148" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-03</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>200704</v>
       </c>
@@ -4643,12 +4054,8 @@
       <c r="E149">
         <v>549.98</v>
       </c>
-      <c r="F149" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-04</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>200705</v>
       </c>
@@ -4664,12 +4071,8 @@
       <c r="E150">
         <v>565.12</v>
       </c>
-      <c r="F150" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-05</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>200706</v>
       </c>
@@ -4685,12 +4088,8 @@
       <c r="E151">
         <v>579.23</v>
       </c>
-      <c r="F151" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-06</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>200707</v>
       </c>
@@ -4706,12 +4105,8 @@
       <c r="E152">
         <v>617.79999999999995</v>
       </c>
-      <c r="F152" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-07</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>200708</v>
       </c>
@@ -4727,12 +4122,8 @@
       <c r="E153">
         <v>632.33000000000004</v>
       </c>
-      <c r="F153" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-08</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>200709</v>
       </c>
@@ -4748,12 +4139,8 @@
       <c r="E154">
         <v>536.53</v>
       </c>
-      <c r="F154" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-09</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>200710</v>
       </c>
@@ -4769,12 +4156,8 @@
       <c r="E155">
         <v>573.27</v>
       </c>
-      <c r="F155" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>200711</v>
       </c>
@@ -4790,12 +4173,8 @@
       <c r="E156">
         <v>517.52</v>
       </c>
-      <c r="F156" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>200712</v>
       </c>
@@ -4811,12 +4190,8 @@
       <c r="E157">
         <v>532.41</v>
       </c>
-      <c r="F157" t="str">
-        <f t="shared" si="2"/>
-        <v>2007-12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>200801</v>
       </c>
@@ -4832,12 +4207,8 @@
       <c r="E158">
         <v>493.3</v>
       </c>
-      <c r="F158" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-01</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>200802</v>
       </c>
@@ -4853,12 +4224,8 @@
       <c r="E159">
         <v>487.66</v>
       </c>
-      <c r="F159" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-02</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>200803</v>
       </c>
@@ -4874,12 +4241,8 @@
       <c r="E160">
         <v>524.99</v>
       </c>
-      <c r="F160" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-03</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>200804</v>
       </c>
@@ -4895,12 +4258,8 @@
       <c r="E161">
         <v>519.98</v>
       </c>
-      <c r="F161" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-04</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>200805</v>
       </c>
@@ -4916,12 +4275,8 @@
       <c r="E162">
         <v>528.19000000000005</v>
       </c>
-      <c r="F162" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-05</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>200806</v>
       </c>
@@ -4937,12 +4292,8 @@
       <c r="E163">
         <v>519.92999999999995</v>
       </c>
-      <c r="F163" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-06</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>200807</v>
       </c>
@@ -4958,12 +4309,8 @@
       <c r="E164">
         <v>588.96</v>
       </c>
-      <c r="F164" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-07</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>200808</v>
       </c>
@@ -4979,12 +4326,8 @@
       <c r="E165">
         <v>576.27</v>
       </c>
-      <c r="F165" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-08</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>200809</v>
       </c>
@@ -5000,12 +4343,8 @@
       <c r="E166">
         <v>519.44000000000005</v>
       </c>
-      <c r="F166" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-09</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>200810</v>
       </c>
@@ -5021,12 +4360,8 @@
       <c r="E167">
         <v>527.83000000000004</v>
       </c>
-      <c r="F167" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>200811</v>
       </c>
@@ -5042,12 +4377,8 @@
       <c r="E168">
         <v>476.28</v>
       </c>
-      <c r="F168" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>200812</v>
       </c>
@@ -5063,12 +4394,8 @@
       <c r="E169">
         <v>524.71</v>
       </c>
-      <c r="F169" t="str">
-        <f t="shared" si="2"/>
-        <v>2008-12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>200901</v>
       </c>
@@ -5084,12 +4411,8 @@
       <c r="E170">
         <v>461.83</v>
       </c>
-      <c r="F170" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-01</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>200902</v>
       </c>
@@ -5105,12 +4428,8 @@
       <c r="E171">
         <v>444.75</v>
       </c>
-      <c r="F171" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-02</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>200903</v>
       </c>
@@ -5126,12 +4445,8 @@
       <c r="E172">
         <v>495.21</v>
       </c>
-      <c r="F172" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-03</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>200904</v>
       </c>
@@ -5147,12 +4462,8 @@
       <c r="E173">
         <v>510.46</v>
       </c>
-      <c r="F173" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-04</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>200905</v>
       </c>
@@ -5168,12 +4479,8 @@
       <c r="E174">
         <v>496.43</v>
       </c>
-      <c r="F174" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-05</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>200906</v>
       </c>
@@ -5189,12 +4496,8 @@
       <c r="E175">
         <v>521.27</v>
       </c>
-      <c r="F175" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-06</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>200907</v>
       </c>
@@ -5210,12 +4513,8 @@
       <c r="E176">
         <v>580.52</v>
       </c>
-      <c r="F176" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-07</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>200908</v>
       </c>
@@ -5231,12 +4530,8 @@
       <c r="E177">
         <v>551.21</v>
       </c>
-      <c r="F177" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-08</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>200909</v>
       </c>
@@ -5252,12 +4547,8 @@
       <c r="E178">
         <v>497.57</v>
       </c>
-      <c r="F178" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-09</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>200910</v>
       </c>
@@ -5273,12 +4564,8 @@
       <c r="E179">
         <v>506.8</v>
       </c>
-      <c r="F179" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>200911</v>
       </c>
@@ -5294,12 +4581,8 @@
       <c r="E180">
         <v>449.38</v>
       </c>
-      <c r="F180" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>200912</v>
       </c>
@@ -5315,12 +4598,8 @@
       <c r="E181">
         <v>489.54</v>
       </c>
-      <c r="F181" t="str">
-        <f t="shared" si="2"/>
-        <v>2009-12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>201001</v>
       </c>
@@ -5336,12 +4615,8 @@
       <c r="E182">
         <v>416.09</v>
       </c>
-      <c r="F182" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-01</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>201002</v>
       </c>
@@ -5357,12 +4632,8 @@
       <c r="E183">
         <v>414.45</v>
       </c>
-      <c r="F183" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-02</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>201003</v>
       </c>
@@ -5378,12 +4649,8 @@
       <c r="E184">
         <v>494.59</v>
       </c>
-      <c r="F184" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-03</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>201004</v>
       </c>
@@ -5399,12 +4666,8 @@
       <c r="E185">
         <v>468.62</v>
       </c>
-      <c r="F185" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-04</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>201005</v>
       </c>
@@ -5420,12 +4683,8 @@
       <c r="E186">
         <v>470.65</v>
       </c>
-      <c r="F186" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-05</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>201006</v>
       </c>
@@ -5441,12 +4700,8 @@
       <c r="E187">
         <v>489.5</v>
       </c>
-      <c r="F187" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-06</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>201007</v>
       </c>
@@ -5462,12 +4717,8 @@
       <c r="E188">
         <v>541.02</v>
       </c>
-      <c r="F188" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-07</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>201008</v>
       </c>
@@ -5483,12 +4734,8 @@
       <c r="E189">
         <v>523.51</v>
       </c>
-      <c r="F189" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-08</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>201009</v>
       </c>
@@ -5504,12 +4751,8 @@
       <c r="E190">
         <v>483.25</v>
       </c>
-      <c r="F190" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-09</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>201010</v>
       </c>
@@ -5525,12 +4768,8 @@
       <c r="E191">
         <v>466.35</v>
       </c>
-      <c r="F191" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-10</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>201011</v>
       </c>
@@ -5546,12 +4785,8 @@
       <c r="E192">
         <v>435.28</v>
       </c>
-      <c r="F192" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>201012</v>
       </c>
@@ -5567,12 +4802,8 @@
       <c r="E193">
         <v>466.68</v>
       </c>
-      <c r="F193" t="str">
-        <f t="shared" si="2"/>
-        <v>2010-12</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>201101</v>
       </c>
@@ -5588,12 +4819,8 @@
       <c r="E194">
         <v>403.49</v>
       </c>
-      <c r="F194" t="str">
-        <f t="shared" si="2"/>
-        <v>2011-01</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>201102</v>
       </c>
@@ -5609,12 +4836,8 @@
       <c r="E195">
         <v>398.89</v>
       </c>
-      <c r="F195" t="str">
-        <f t="shared" ref="F195:F258" si="3">LEFT(A195,4)&amp;"-"&amp;RIGHT(A195,2)</f>
-        <v>2011-02</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>201103</v>
       </c>
@@ -5630,12 +4853,8 @@
       <c r="E196">
         <v>432.62</v>
       </c>
-      <c r="F196" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-03</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>201104</v>
       </c>
@@ -5651,12 +4870,8 @@
       <c r="E197">
         <v>449.62</v>
       </c>
-      <c r="F197" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-04</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>201105</v>
       </c>
@@ -5672,12 +4887,8 @@
       <c r="E198">
         <v>427.89</v>
       </c>
-      <c r="F198" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-05</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>201106</v>
       </c>
@@ -5693,12 +4904,8 @@
       <c r="E199">
         <v>456.34</v>
       </c>
-      <c r="F199" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-06</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>201107</v>
       </c>
@@ -5714,12 +4921,8 @@
       <c r="E200">
         <v>493.18</v>
       </c>
-      <c r="F200" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-07</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201108</v>
       </c>
@@ -5735,12 +4938,8 @@
       <c r="E201">
         <v>506.91</v>
       </c>
-      <c r="F201" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-08</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201109</v>
       </c>
@@ -5756,12 +4955,8 @@
       <c r="E202">
         <v>450.57</v>
       </c>
-      <c r="F202" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-09</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201110</v>
       </c>
@@ -5777,12 +4972,8 @@
       <c r="E203">
         <v>438.46</v>
       </c>
-      <c r="F203" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>201111</v>
       </c>
@@ -5798,12 +4989,8 @@
       <c r="E204">
         <v>400.26</v>
       </c>
-      <c r="F204" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>201112</v>
       </c>
@@ -5819,12 +5006,8 @@
       <c r="E205">
         <v>435.29</v>
       </c>
-      <c r="F205" t="str">
-        <f t="shared" si="3"/>
-        <v>2011-12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>201201</v>
       </c>
@@ -5840,12 +5023,8 @@
       <c r="E206">
         <v>385.3</v>
       </c>
-      <c r="F206" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-01</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>201202</v>
       </c>
@@ -5861,12 +5040,8 @@
       <c r="E207">
         <v>376.7</v>
       </c>
-      <c r="F207" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-02</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>201203</v>
       </c>
@@ -5882,12 +5057,8 @@
       <c r="E208">
         <v>420.35</v>
       </c>
-      <c r="F208" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-03</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>201204</v>
       </c>
@@ -5903,12 +5074,8 @@
       <c r="E209">
         <v>391.86</v>
       </c>
-      <c r="F209" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-04</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>201205</v>
       </c>
@@ -5924,12 +5091,8 @@
       <c r="E210">
         <v>410.56</v>
       </c>
-      <c r="F210" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-05</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>201206</v>
       </c>
@@ -5945,12 +5108,8 @@
       <c r="E211">
         <v>443.58</v>
       </c>
-      <c r="F211" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-06</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>201207</v>
       </c>
@@ -5966,12 +5125,8 @@
       <c r="E212">
         <v>451.69</v>
       </c>
-      <c r="F212" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-07</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>201208</v>
       </c>
@@ -5987,12 +5142,8 @@
       <c r="E213">
         <v>477.19</v>
       </c>
-      <c r="F213" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-08</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>201209</v>
       </c>
@@ -6008,12 +5159,8 @@
       <c r="E214">
         <v>387.55</v>
       </c>
-      <c r="F214" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-09</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>201210</v>
       </c>
@@ -6029,12 +5176,8 @@
       <c r="E215">
         <v>403.88</v>
       </c>
-      <c r="F215" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>201211</v>
       </c>
@@ -6050,12 +5193,8 @@
       <c r="E216">
         <v>368.91</v>
       </c>
-      <c r="F216" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>201212</v>
       </c>
@@ -6071,12 +5210,8 @@
       <c r="E217">
         <v>399.94</v>
       </c>
-      <c r="F217" t="str">
-        <f t="shared" si="3"/>
-        <v>2012-12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>201301</v>
       </c>
@@ -6092,12 +5227,8 @@
       <c r="E218">
         <v>348.04</v>
       </c>
-      <c r="F218" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-01</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>201302</v>
       </c>
@@ -6113,12 +5244,8 @@
       <c r="E219">
         <v>331.18</v>
       </c>
-      <c r="F219" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-02</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>201303</v>
       </c>
@@ -6134,12 +5261,8 @@
       <c r="E220">
         <v>377.01</v>
       </c>
-      <c r="F220" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-03</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>201304</v>
       </c>
@@ -6155,12 +5278,8 @@
       <c r="E221">
         <v>388.03</v>
       </c>
-      <c r="F221" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-04</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>201305</v>
       </c>
@@ -6176,12 +5295,8 @@
       <c r="E222">
         <v>391.2</v>
       </c>
-      <c r="F222" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-05</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>201306</v>
       </c>
@@ -6197,12 +5312,8 @@
       <c r="E223">
         <v>383.18</v>
       </c>
-      <c r="F223" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-06</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>201307</v>
       </c>
@@ -6218,12 +5329,8 @@
       <c r="E224">
         <v>452.19</v>
       </c>
-      <c r="F224" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-07</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>201308</v>
       </c>
@@ -6239,12 +5346,8 @@
       <c r="E225">
         <v>450.83</v>
       </c>
-      <c r="F225" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-08</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>201309</v>
       </c>
@@ -6260,12 +5363,8 @@
       <c r="E226">
         <v>381.95</v>
       </c>
-      <c r="F226" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-09</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>201310</v>
       </c>
@@ -6281,12 +5380,8 @@
       <c r="E227">
         <v>401.72</v>
       </c>
-      <c r="F227" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>201311</v>
       </c>
@@ -6302,12 +5397,8 @@
       <c r="E228">
         <v>362.28</v>
       </c>
-      <c r="F228" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-11</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>201312</v>
       </c>
@@ -6323,12 +5414,8 @@
       <c r="E229">
         <v>383.18</v>
       </c>
-      <c r="F229" t="str">
-        <f t="shared" si="3"/>
-        <v>2013-12</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>201401</v>
       </c>
@@ -6344,12 +5431,8 @@
       <c r="E230">
         <v>348.87</v>
       </c>
-      <c r="F230" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-01</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>201402</v>
       </c>
@@ -6365,12 +5448,8 @@
       <c r="E231">
         <v>328.97</v>
       </c>
-      <c r="F231" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-02</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>201403</v>
       </c>
@@ -6386,12 +5465,8 @@
       <c r="E232">
         <v>373.57</v>
       </c>
-      <c r="F232" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-03</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>201404</v>
       </c>
@@ -6407,12 +5482,8 @@
       <c r="E233">
         <v>385.41</v>
       </c>
-      <c r="F233" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-04</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>201405</v>
       </c>
@@ -6428,12 +5499,8 @@
       <c r="E234">
         <v>389.66</v>
       </c>
-      <c r="F234" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-05</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>201406</v>
       </c>
@@ -6449,12 +5516,8 @@
       <c r="E235">
         <v>385.68</v>
       </c>
-      <c r="F235" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-06</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>201407</v>
       </c>
@@ -6470,12 +5533,8 @@
       <c r="E236">
         <v>438.01</v>
       </c>
-      <c r="F236" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-07</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>201408</v>
       </c>
@@ -6491,12 +5550,8 @@
       <c r="E237">
         <v>429.56</v>
       </c>
-      <c r="F237" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-08</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>201409</v>
       </c>
@@ -6512,12 +5567,8 @@
       <c r="E238">
         <v>395.31</v>
       </c>
-      <c r="F238" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-09</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>201410</v>
       </c>
@@ -6533,12 +5584,8 @@
       <c r="E239">
         <v>398.12</v>
       </c>
-      <c r="F239" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>201411</v>
       </c>
@@ -6554,12 +5601,8 @@
       <c r="E240">
         <v>345.12</v>
       </c>
-      <c r="F240" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>201412</v>
       </c>
@@ -6575,12 +5618,8 @@
       <c r="E241">
         <v>393.53</v>
       </c>
-      <c r="F241" t="str">
-        <f t="shared" si="3"/>
-        <v>2014-12</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>201501</v>
       </c>
@@ -6596,12 +5635,8 @@
       <c r="E242">
         <v>353.68</v>
       </c>
-      <c r="F242" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-01</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>201502</v>
       </c>
@@ -6617,12 +5652,8 @@
       <c r="E243">
         <v>324.82</v>
       </c>
-      <c r="F243" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-02</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>201503</v>
       </c>
@@ -6638,12 +5669,8 @@
       <c r="E244">
         <v>373.19</v>
       </c>
-      <c r="F244" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-03</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>201504</v>
       </c>
@@ -6659,12 +5686,8 @@
       <c r="E245">
         <v>384.11</v>
       </c>
-      <c r="F245" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-04</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>201505</v>
       </c>
@@ -6680,12 +5703,8 @@
       <c r="E246">
         <v>383.32</v>
       </c>
-      <c r="F246" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-05</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>201506</v>
       </c>
@@ -6701,12 +5720,8 @@
       <c r="E247">
         <v>401.85</v>
       </c>
-      <c r="F247" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-06</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>201507</v>
       </c>
@@ -6722,12 +5737,8 @@
       <c r="E248">
         <v>456.54</v>
       </c>
-      <c r="F248" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-07</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>201508</v>
       </c>
@@ -6743,12 +5754,8 @@
       <c r="E249">
         <v>431.34</v>
       </c>
-      <c r="F249" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-08</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>201509</v>
       </c>
@@ -6764,12 +5771,8 @@
       <c r="E250">
         <v>389.12</v>
       </c>
-      <c r="F250" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-09</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>201510</v>
       </c>
@@ -6785,12 +5788,8 @@
       <c r="E251">
         <v>395.69</v>
       </c>
-      <c r="F251" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-10</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>201511</v>
       </c>
@@ -6806,12 +5805,8 @@
       <c r="E252">
         <v>355.4</v>
       </c>
-      <c r="F252" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>201512</v>
       </c>
@@ -6827,12 +5822,8 @@
       <c r="E253">
         <v>398.03</v>
       </c>
-      <c r="F253" t="str">
-        <f t="shared" si="3"/>
-        <v>2015-12</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>201601</v>
       </c>
@@ -6848,12 +5839,8 @@
       <c r="E254">
         <v>341.82</v>
       </c>
-      <c r="F254" t="str">
-        <f t="shared" si="3"/>
-        <v>2016-01</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>201602</v>
       </c>
@@ -6869,12 +5856,8 @@
       <c r="E255">
         <v>353.11</v>
       </c>
-      <c r="F255" t="str">
-        <f t="shared" si="3"/>
-        <v>2016-02</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>201603</v>
       </c>
@@ -6890,12 +5873,8 @@
       <c r="E256">
         <v>389.93</v>
       </c>
-      <c r="F256" t="str">
-        <f t="shared" si="3"/>
-        <v>2016-03</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>201604</v>
       </c>
@@ -6911,12 +5890,8 @@
       <c r="E257">
         <v>382.72</v>
       </c>
-      <c r="F257" t="str">
-        <f t="shared" si="3"/>
-        <v>2016-04</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>201605</v>
       </c>
@@ -6932,12 +5907,8 @@
       <c r="E258">
         <v>392.38</v>
       </c>
-      <c r="F258" t="str">
-        <f t="shared" si="3"/>
-        <v>2016-05</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>201606</v>
       </c>
@@ -6953,12 +5924,8 @@
       <c r="E259">
         <v>417.47</v>
       </c>
-      <c r="F259" t="str">
-        <f t="shared" ref="F259:F298" si="4">LEFT(A259,4)&amp;"-"&amp;RIGHT(A259,2)</f>
-        <v>2016-06</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>201607</v>
       </c>
@@ -6974,12 +5941,8 @@
       <c r="E260">
         <v>454.62</v>
       </c>
-      <c r="F260" t="str">
-        <f t="shared" si="4"/>
-        <v>2016-07</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>201608</v>
       </c>
@@ -6995,12 +5958,8 @@
       <c r="E261">
         <v>459.46</v>
       </c>
-      <c r="F261" t="str">
-        <f t="shared" si="4"/>
-        <v>2016-08</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>201609</v>
       </c>
@@ -7016,12 +5975,8 @@
       <c r="E262">
         <v>411.26</v>
       </c>
-      <c r="F262" t="str">
-        <f t="shared" si="4"/>
-        <v>2016-09</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>201610</v>
       </c>
@@ -7037,12 +5992,8 @@
       <c r="E263">
         <v>392</v>
       </c>
-      <c r="F263" t="str">
-        <f t="shared" si="4"/>
-        <v>2016-10</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>201611</v>
       </c>
@@ -7058,12 +6009,8 @@
       <c r="E264">
         <v>367.52</v>
       </c>
-      <c r="F264" t="str">
-        <f t="shared" si="4"/>
-        <v>2016-11</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>201612</v>
       </c>
@@ -7079,12 +6026,8 @@
       <c r="E265">
         <v>392.65</v>
       </c>
-      <c r="F265" t="str">
-        <f t="shared" si="4"/>
-        <v>2016-12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>201701</v>
       </c>
@@ -7100,12 +6043,8 @@
       <c r="E266">
         <v>348.65</v>
       </c>
-      <c r="F266" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-01</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>201702</v>
       </c>
@@ -7121,12 +6060,8 @@
       <c r="E267">
         <v>338.71</v>
       </c>
-      <c r="F267" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-02</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>201703</v>
       </c>
@@ -7142,12 +6077,8 @@
       <c r="E268">
         <v>399.25</v>
       </c>
-      <c r="F268" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-03</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>201704</v>
       </c>
@@ -7163,12 +6094,8 @@
       <c r="E269">
         <v>396.81</v>
       </c>
-      <c r="F269" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-04</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>201705</v>
       </c>
@@ -7184,12 +6111,8 @@
       <c r="E270">
         <v>407.67</v>
       </c>
-      <c r="F270" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-05</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>201706</v>
       </c>
@@ -7205,12 +6128,8 @@
       <c r="E271">
         <v>438.09</v>
       </c>
-      <c r="F271" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-06</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>201707</v>
       </c>
@@ -7226,12 +6145,8 @@
       <c r="E272">
         <v>454.61</v>
       </c>
-      <c r="F272" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-07</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>201708</v>
       </c>
@@ -7247,12 +6162,8 @@
       <c r="E273">
         <v>466.57</v>
       </c>
-      <c r="F273" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-08</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>201709</v>
       </c>
@@ -7268,12 +6179,8 @@
       <c r="E274">
         <v>415.7</v>
       </c>
-      <c r="F274" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-09</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>201710</v>
       </c>
@@ -7289,12 +6196,8 @@
       <c r="E275">
         <v>412.66</v>
       </c>
-      <c r="F275" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-10</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>201711</v>
       </c>
@@ -7310,12 +6213,8 @@
       <c r="E276">
         <v>377.34</v>
       </c>
-      <c r="F276" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-11</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>201712</v>
       </c>
@@ -7331,12 +6230,8 @@
       <c r="E277">
         <v>398.44</v>
       </c>
-      <c r="F277" t="str">
-        <f t="shared" si="4"/>
-        <v>2017-12</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>201801</v>
       </c>
@@ -7352,12 +6247,8 @@
       <c r="E278">
         <v>368.27</v>
       </c>
-      <c r="F278" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-01</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>201802</v>
       </c>
@@ -7373,12 +6264,8 @@
       <c r="E279">
         <v>351.97</v>
       </c>
-      <c r="F279" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-02</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>201803</v>
       </c>
@@ -7394,12 +6281,8 @@
       <c r="E280">
         <v>410.29</v>
       </c>
-      <c r="F280" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-03</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>201804</v>
       </c>
@@ -7415,12 +6298,8 @@
       <c r="E281">
         <v>401.02</v>
       </c>
-      <c r="F281" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-04</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>201805</v>
       </c>
@@ -7436,12 +6315,8 @@
       <c r="E282">
         <v>428.97</v>
       </c>
-      <c r="F282" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-05</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>201806</v>
       </c>
@@ -7457,12 +6332,8 @@
       <c r="E283">
         <v>441.02</v>
       </c>
-      <c r="F283" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-06</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>201807</v>
       </c>
@@ -7478,12 +6349,8 @@
       <c r="E284">
         <v>481.11</v>
       </c>
-      <c r="F284" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-07</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>201808</v>
       </c>
@@ -7499,12 +6366,8 @@
       <c r="E285">
         <v>502.3</v>
       </c>
-      <c r="F285" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-08</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>201809</v>
       </c>
@@ -7520,12 +6383,8 @@
       <c r="E286">
         <v>429.23</v>
       </c>
-      <c r="F286" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-09</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>201810</v>
       </c>
@@ -7541,12 +6400,8 @@
       <c r="E287">
         <v>442.02</v>
       </c>
-      <c r="F287" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-10</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>201811</v>
       </c>
@@ -7562,12 +6417,8 @@
       <c r="E288">
         <v>402.89</v>
       </c>
-      <c r="F288" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>201812</v>
       </c>
@@ -7583,12 +6434,8 @@
       <c r="E289">
         <v>428.98</v>
       </c>
-      <c r="F289" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-12</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>201901</v>
       </c>
@@ -7604,12 +6451,8 @@
       <c r="E290">
         <v>391.16</v>
       </c>
-      <c r="F290" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-01</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>201902</v>
       </c>
@@ -7625,12 +6468,8 @@
       <c r="E291">
         <v>376.63</v>
       </c>
-      <c r="F291" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-02</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>201903</v>
       </c>
@@ -7646,12 +6485,8 @@
       <c r="E292">
         <v>421.18</v>
       </c>
-      <c r="F292" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-03</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>201904</v>
       </c>
@@ -7667,12 +6502,8 @@
       <c r="E293">
         <v>437.96</v>
       </c>
-      <c r="F293" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-04</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>201905</v>
       </c>
@@ -7688,12 +6519,8 @@
       <c r="E294">
         <v>455.28</v>
       </c>
-      <c r="F294" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-05</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>201906</v>
       </c>
@@ -7709,12 +6536,8 @@
       <c r="E295">
         <v>454.21</v>
       </c>
-      <c r="F295" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-06</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>201907</v>
       </c>
@@ -7730,12 +6553,8 @@
       <c r="E296">
         <v>523.99</v>
       </c>
-      <c r="F296" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-07</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>201908</v>
       </c>
@@ -7751,12 +6570,8 @@
       <c r="E297">
         <v>525.95000000000005</v>
       </c>
-      <c r="F297" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-08</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>201909</v>
       </c>
@@ -7771,10 +6586,6 @@
       </c>
       <c r="E298">
         <v>446</v>
-      </c>
-      <c r="F298" t="str">
-        <f t="shared" si="4"/>
-        <v>2019-09</v>
       </c>
     </row>
   </sheetData>
@@ -7786,14 +6597,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="76.5703125" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7801,7 +6612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7809,7 +6620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7817,7 +6628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -7825,7 +6636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7833,7 +6644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -7841,7 +6652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
